--- a/tshirt.xlsx
+++ b/tshirt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wong/Documents/GitHub/Y2S2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D88E5F9-8E92-3B4D-8E55-DAC1EF42AE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1A5D25-4E28-C645-BD20-BC7590761168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8780" yWindow="4100" windowWidth="27640" windowHeight="16940" xr2:uid="{4037E118-96EA-D44C-B8B7-404BA8B2836A}"/>
+    <workbookView xWindow="18540" yWindow="2020" windowWidth="27640" windowHeight="16940" xr2:uid="{4037E118-96EA-D44C-B8B7-404BA8B2836A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -44,30 +44,15 @@
     <t>Mobile Number</t>
   </si>
   <si>
-    <t>TRIVEDI PRAKHAR NILESH</t>
-  </si>
-  <si>
-    <t>GOH EE SHAWN</t>
-  </si>
-  <si>
     <t>KOW JIA YANG NICHOLAS</t>
   </si>
   <si>
-    <t>ROMA AARON RUSSELL HALLARTE</t>
-  </si>
-  <si>
     <t>ZARA TEO</t>
   </si>
   <si>
-    <t>KESHURAM RAMANI</t>
-  </si>
-  <si>
     <t>CHUA ZHENG YONG, FELIX</t>
   </si>
   <si>
-    <t>9677 0783</t>
-  </si>
-  <si>
     <t>VINCENT TUANG</t>
   </si>
   <si>
@@ -107,9 +92,6 @@
     <t>TAN KAI SHEN</t>
   </si>
   <si>
-    <t xml:space="preserve">9832 2286 </t>
-  </si>
-  <si>
     <t>TAN JIONG'EN BENJAMIN</t>
   </si>
   <si>
@@ -150,9 +132,6 @@
   </si>
   <si>
     <t xml:space="preserve">8928 8251 </t>
-  </si>
-  <si>
-    <t>Jayden Chong Cheng Hock</t>
   </si>
   <si>
     <t>Ryan Peh</t>
@@ -220,11 +199,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -560,13 +538,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20A7610-9B4D-3040-B304-F8077A660233}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -577,11 +558,11 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>88097455</v>
+      <c r="B2" s="2">
+        <v>98997799</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -589,31 +570,31 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>88327694</v>
+        <v>96254865</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>98997799</v>
+      <c r="B4" s="1">
+        <v>96770783</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
-        <v>91875374</v>
+      <c r="B5" s="2">
+        <v>81395498</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
-        <v>96254865</v>
+      <c r="B6" s="1">
+        <v>87781086</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -621,246 +602,206 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>80230416</v>
+        <v>96376759</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
+      <c r="B8" s="1">
+        <v>81803847</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>81395498</v>
+        <v>98272565</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>87781086</v>
+        <v>96182651</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>96176209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2">
-        <v>96376759</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="2">
+        <v>97526893</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1">
-        <v>81803847</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="1">
+        <v>94241424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2">
-        <v>98272565</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="2">
+        <v>98799774</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1">
-        <v>96182651</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2">
-        <v>96176209</v>
+      <c r="B15" s="1">
+        <v>89339196</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>97526893</v>
+        <v>96620718</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>94241424</v>
+        <v>98322286</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>98799774</v>
+        <v>88872501</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1">
-        <v>89339196</v>
+        <v>88431601</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>96620718</v>
+        <v>88540119</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="B21" s="1">
+        <v>81627338</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>88872501</v>
+        <v>81800108</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1">
-        <v>88431601</v>
+        <v>98896582</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>88540119</v>
+        <v>91786313</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>81627338</v>
+        <v>87160301</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>81800108</v>
+        <v>98777863</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>98896582</v>
+        <v>98950922</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>91786313</v>
+        <v>94792436</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1">
+        <v>93394439</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>92349871</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="1">
-        <v>87160301</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="2">
-        <v>98777863</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="1">
-        <v>98950922</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="2">
-        <v>94792436</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="1">
-        <v>93394439</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="1">
-        <v>92349871</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="3">
-        <v>92224896</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="4">
+      <c r="B32" s="3">
         <v>87967828</v>
       </c>
     </row>

--- a/tshirt.xlsx
+++ b/tshirt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wong/Documents/GitHub/Y2S2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1A5D25-4E28-C645-BD20-BC7590761168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439561D5-83D6-8148-8CE7-CE91EBE8DD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18540" yWindow="2020" windowWidth="27640" windowHeight="16940" xr2:uid="{4037E118-96EA-D44C-B8B7-404BA8B2836A}"/>
+    <workbookView xWindow="17160" yWindow="2020" windowWidth="27640" windowHeight="16940" xr2:uid="{4037E118-96EA-D44C-B8B7-404BA8B2836A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -44,24 +44,6 @@
     <t>Mobile Number</t>
   </si>
   <si>
-    <t>KOW JIA YANG NICHOLAS</t>
-  </si>
-  <si>
-    <t>ZARA TEO</t>
-  </si>
-  <si>
-    <t>CHUA ZHENG YONG, FELIX</t>
-  </si>
-  <si>
-    <t>VINCENT TUANG</t>
-  </si>
-  <si>
-    <t>THAM JIA HE</t>
-  </si>
-  <si>
-    <t>RAYSON FOO SHI LONG</t>
-  </si>
-  <si>
     <t>NGUYEN NGOC PHUONG LAN</t>
   </si>
   <si>
@@ -71,12 +53,6 @@
     <t>WONG CHIN YEE</t>
   </si>
   <si>
-    <t>NEO YEE RONG ELVIN</t>
-  </si>
-  <si>
-    <t>AFSHEEN SHARIFAH D/O UBAIDULLA</t>
-  </si>
-  <si>
     <t>MOHAMED SALIM BIN ALI</t>
   </si>
   <si>
@@ -86,62 +62,38 @@
     <t>CHANG YEE JIAN</t>
   </si>
   <si>
-    <t>LIM WEI YI, MARKUS</t>
-  </si>
-  <si>
     <t>TAN KAI SHEN</t>
   </si>
   <si>
     <t>TAN JIONG'EN BENJAMIN</t>
   </si>
   <si>
-    <t>TAN YU'EN SARAH</t>
-  </si>
-  <si>
-    <t>CHEN KAI SYUEN</t>
-  </si>
-  <si>
-    <t>ALEX NICHOLAS KERSTEN</t>
-  </si>
-  <si>
-    <t>JOON JUN HAN</t>
-  </si>
-  <si>
-    <t>WONG HON JOON</t>
-  </si>
-  <si>
     <t>MARDANE PARNIKA ANKUR</t>
   </si>
   <si>
     <t>LEONG SONG HUI</t>
   </si>
   <si>
-    <t>TAN JIA YAO</t>
-  </si>
-  <si>
     <t>LOVAN DEOVINO</t>
   </si>
   <si>
     <t>SURESH SREENIVAS</t>
   </si>
   <si>
-    <t>AJMAL KHAN AHMED TANWIR</t>
-  </si>
-  <si>
     <t>VIJAY GOVINDARAJ VIMAL RAJ</t>
   </si>
   <si>
-    <t xml:space="preserve">8928 8251 </t>
-  </si>
-  <si>
-    <t>Ryan Peh</t>
+    <t>Lance Liu</t>
+  </si>
+  <si>
+    <t>8928 8251</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -151,40 +103,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF616161"/>
-      <name val="&quot;SF Pro Text&quot;"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDD6EE"/>
-        <bgColor rgb="FFBDD6EE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEEAF6"/>
-        <bgColor rgb="FFDEEAF6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5F5F5"/>
-        <bgColor rgb="FFF5F5F5"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -199,11 +128,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,18 +465,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20A7610-9B4D-3040-B304-F8077A660233}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B7"/>
+      <selection activeCell="B27" sqref="A16:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -557,252 +484,116 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>98997799</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="1">
+        <v>81803847</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>96254865</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" s="1">
+        <v>98272565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>96770783</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+        <v>96182651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>81395498</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5" s="1">
+        <v>94241424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>87781086</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+        <v>98799774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
-        <v>96376759</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="B7" s="1">
+        <v>89339196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>81803847</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
+        <v>98322286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
-        <v>98272565</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="B9" s="1">
+        <v>88872501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>96182651</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
+        <v>91786313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
-        <v>96176209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="B11" s="1">
+        <v>87160301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
-        <v>97526893</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="B12" s="1">
+        <v>98950922</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>94241424</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
+        <v>94792436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>92349871</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
-        <v>98799774</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1">
-        <v>89339196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B16" s="2">
-        <v>96620718</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1">
-        <v>98322286</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2">
-        <v>88872501</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1">
-        <v>88431601</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2">
-        <v>88540119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1">
-        <v>81627338</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2">
-        <v>81800108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1">
-        <v>98896582</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2">
-        <v>91786313</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1">
-        <v>87160301</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="2">
-        <v>98777863</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="1">
-        <v>98950922</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="2">
-        <v>94792436</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="1">
-        <v>93394439</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1">
-        <v>92349871</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="3">
-        <v>87967828</v>
       </c>
     </row>
   </sheetData>

--- a/tshirt.xlsx
+++ b/tshirt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wong/Documents/GitHub/Y2S2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439561D5-83D6-8148-8CE7-CE91EBE8DD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A3839A-CBA0-3045-A9B3-A7796E65D045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17160" yWindow="2020" windowWidth="27640" windowHeight="16940" xr2:uid="{4037E118-96EA-D44C-B8B7-404BA8B2836A}"/>
+    <workbookView xWindow="21280" yWindow="11260" windowWidth="27640" windowHeight="16940" xr2:uid="{4037E118-96EA-D44C-B8B7-404BA8B2836A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -44,24 +44,6 @@
     <t>Mobile Number</t>
   </si>
   <si>
-    <t>NGUYEN NGOC PHUONG LAN</t>
-  </si>
-  <si>
-    <t>AAKASH RAMAKRISHNA</t>
-  </si>
-  <si>
-    <t>WONG CHIN YEE</t>
-  </si>
-  <si>
-    <t>MOHAMED SALIM BIN ALI</t>
-  </si>
-  <si>
-    <t>LIM JIA YING</t>
-  </si>
-  <si>
-    <t>CHANG YEE JIAN</t>
-  </si>
-  <si>
     <t>TAN KAI SHEN</t>
   </si>
   <si>
@@ -84,9 +66,6 @@
   </si>
   <si>
     <t>Lance Liu</t>
-  </si>
-  <si>
-    <t>8928 8251</t>
   </si>
 </sst>
 </file>
@@ -465,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20A7610-9B4D-3040-B304-F8077A660233}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
-      <selection activeCell="B27" sqref="A16:B27"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -489,7 +468,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>81803847</v>
+        <v>98322286</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -497,7 +476,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>98272565</v>
+        <v>88872501</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -505,7 +484,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>96182651</v>
+        <v>91786313</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -513,7 +492,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>94241424</v>
+        <v>87160301</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -521,7 +500,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>98799774</v>
+        <v>98950922</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -529,71 +508,23 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>89339196</v>
+        <v>94792436</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>98322286</v>
+        <v>92349871</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>88872501</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
-        <v>91786313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1">
-        <v>87160301</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1">
-        <v>98950922</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1">
-        <v>94792436</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1">
-        <v>92349871</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>89288251</v>
       </c>
     </row>
   </sheetData>
